--- a/output/notes_RESF_generees/tables/Tableau_RESF_2025_2.xlsx
+++ b/output/notes_RESF_generees/tables/Tableau_RESF_2025_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,7 +442,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>LPFP 2023-2027</t>
+          <t>OCDE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Commission Européenne</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>FMI</t>
         </is>
       </c>
     </row>
@@ -462,72 +472,122 @@
           <t>---</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dépense publique (hors CI, % PIB)</t>
+          <t>PIB (2024)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>56,4 %</t>
+          <t>1,1 %</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>55,0 %</t>
+          <t>1,1 %</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0,7 %</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0,9 %</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dépense publique (hors CI, en Md€)</t>
+          <t>PIB (2025)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1694 Md€</t>
+          <t>1,1 %</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1668 Md€</t>
+          <t>1,2 %</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1,3 %</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1,3 %</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Évolution de la dépense publique hors CI en volume</t>
+          <t>IPC (2024)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0,4 %</t>
+          <t>2,5 %</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0,8 %</t>
+          <t>2,4 %</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2,5 %</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>n.d.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Principales dépenses d'investissement (en Md€)</t>
+          <t>IPC (2025)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>31 Md€</t>
+          <t>1,9 %</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>34 Md€</t>
+          <t>1,9 %</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2,0 %</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>n.d.</t>
         </is>
       </c>
     </row>
